--- a/Tabela.xlsx
+++ b/Tabela.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Custo água" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Consumo água" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Consumo água em m³" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1785,6 +1785,13 @@
       <c r="K27" t="inlineStr">
         <is>
           <t>R$ 2843.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>V1.0 07/2024 by Gian Gabriel Silva Vianna</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1888,32 +1895,32 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>105.8 m³</t>
+          <t>105.8</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>67.5 m³</t>
+          <t>67.5</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>74.8 m³</t>
+          <t>74.8</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>53.8 m³</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>75.0 m³</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>68.6 m³</t>
+          <t>68.6</t>
         </is>
       </c>
     </row>
@@ -1941,32 +1948,32 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>37.91 m³</t>
+          <t>37.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>37.04 m³</t>
+          <t>37.04</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>44.82 m³</t>
+          <t>44.82</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>43.07 m³</t>
+          <t>43.07</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>43.71 m³</t>
+          <t>43.71</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>47.87 m³</t>
+          <t>47.87</t>
         </is>
       </c>
     </row>
@@ -1990,32 +1997,32 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.01 m³</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -2043,32 +2050,32 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>42.36 m³</t>
+          <t>42.36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>47.16 m³</t>
+          <t>47.16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>41.61 m³</t>
+          <t>41.61</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>57.6 m³</t>
+          <t>57.6</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>54.95 m³</t>
+          <t>54.95</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>42.99 m³</t>
+          <t>42.99</t>
         </is>
       </c>
     </row>
@@ -2092,32 +2099,32 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.36 m³</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.96 m³</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2.72 m³</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2.4 m³</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>3.25 m³</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3.32 m³</t>
+          <t>3.32</t>
         </is>
       </c>
     </row>
@@ -2145,32 +2152,32 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.01 m³</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>15.49 m³</t>
+          <t>15.49</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.01 m³</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>5.0 m³</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -2198,32 +2205,32 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.73 m³</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.11 m³</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.75 m³</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.74 m³</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1.35 m³</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.67 m³</t>
+          <t>0.67</t>
         </is>
       </c>
     </row>
@@ -2251,32 +2258,32 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.01 m³</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.01 m³</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.01 m³</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -2304,32 +2311,32 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.05 m³</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.01 m³</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.13 m³</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.01 m³</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.09 m³</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.02 m³</t>
+          <t>0.02</t>
         </is>
       </c>
     </row>
@@ -2357,32 +2364,32 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -2410,32 +2417,32 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.15 m³</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.02 m³</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2.22 m³</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.65 m³</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1.19 m³</t>
+          <t>1.19</t>
         </is>
       </c>
     </row>
@@ -2463,32 +2470,32 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.42 m³</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.14 m³</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.1 m³</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -2520,32 +2527,32 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.59 m³</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3.58 m³</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>4.77 m³</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>3.98 m³</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>4.85 m³</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>4.01 m³</t>
+          <t>4.01</t>
         </is>
       </c>
     </row>
@@ -2573,32 +2580,32 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.3 m³</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.0 m³</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.5 m³</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -2622,32 +2629,32 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -2675,32 +2682,32 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>24.65 m³</t>
+          <t>24.65</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>26.74 m³</t>
+          <t>26.74</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>17.22 m³</t>
+          <t>17.22</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>20.9 m³</t>
+          <t>20.9</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>20.15 m³</t>
+          <t>20.15</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>25.3 m³</t>
+          <t>25.3</t>
         </is>
       </c>
     </row>
@@ -2732,32 +2739,32 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.34 m³</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.05 m³</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.11 m³</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.21 m³</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1.72 m³</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3.21 m³</t>
+          <t>3.21</t>
         </is>
       </c>
     </row>
@@ -2781,32 +2788,32 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1.07 m³</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>4.17 m³</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>26.1 m³</t>
+          <t>26.1</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>9.42 m³</t>
+          <t>9.42</t>
         </is>
       </c>
     </row>
@@ -2830,32 +2837,32 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>8.16 m³</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>12.62 m³</t>
+          <t>12.62</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-7.41 m³</t>
+          <t>-7.41</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1.98 m³</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>7.8 m³</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>4.19 m³</t>
+          <t>4.19</t>
         </is>
       </c>
     </row>
@@ -2879,32 +2886,32 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -2928,32 +2935,32 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>6.72 m³</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>18.04 m³</t>
+          <t>18.04</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>10.89 m³</t>
+          <t>10.89</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>11.16 m³</t>
+          <t>11.16</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>10.0 m³</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>8.45 m³</t>
+          <t>8.45</t>
         </is>
       </c>
     </row>
@@ -2977,32 +2984,32 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.76 m³</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>13.2 m³</t>
+          <t>13.2</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>26.8 m³</t>
+          <t>26.8</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>17.52 m³</t>
+          <t>17.52</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>20.03 m³</t>
+          <t>20.03</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>16.04 m³</t>
+          <t>16.04</t>
         </is>
       </c>
     </row>
@@ -3026,32 +3033,32 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>43.46 m³</t>
+          <t>43.46</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>47.38 m³</t>
+          <t>47.38</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>18.24 m³</t>
+          <t>18.24</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>9.08 m³</t>
+          <t>9.08</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>13.95 m³</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>4.46 m³</t>
+          <t>4.46</t>
         </is>
       </c>
     </row>
@@ -3079,32 +3086,32 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.79 m³</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.07 m³</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.79 m³</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.05 m³</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.5 m³</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.01 m³</t>
+          <t>0.01</t>
         </is>
       </c>
     </row>
@@ -3128,32 +3135,32 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.06 m³</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -3179,32 +3186,32 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>352.56 m³</t>
+          <t>352.56</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>310.72 m³</t>
+          <t>310.72</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>278.23 m³</t>
+          <t>278.23</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>298.67 m³</t>
+          <t>298.67</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>323.62 m³</t>
+          <t>323.62</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>226.56 m³</t>
+          <t>226.56</t>
         </is>
       </c>
     </row>
@@ -3230,32 +3237,32 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>30.84 m³</t>
+          <t>30.84</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>29.55 m³</t>
+          <t>29.55</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>36.99 m³</t>
+          <t>36.99</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>5.0 m³</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>36.78 m³</t>
+          <t>36.78</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>85.06 m³</t>
+          <t>85.06</t>
         </is>
       </c>
     </row>
@@ -3281,34 +3288,51 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.0 m³</t>
-        </is>
-      </c>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>V1.0 07/2024 by Gian Gabriel Silva Vianna</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
